--- a/Simulado/Teste_ex3_Lista.xlsx
+++ b/Simulado/Teste_ex3_Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35e95fd1eb072d23/Área de Trabalho/FATEC/2º SEM/Laboratório de Desenvolvimento em Banco de Dados/LPI/Simulado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0AC974-EF2F-4CA8-815F-6FFFAD18287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{DD0AC974-EF2F-4CA8-815F-6FFFAD18287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678BA89C-FDA9-43F6-A079-030F6FD42D8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B63161D-B7F0-4BF4-9B92-FB01ADFFFABB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item:</t>
   </si>
@@ -45,13 +45,46 @@
   </si>
   <si>
     <t>SIMULADO LPI: Exercício 3</t>
+  </si>
+  <si>
+    <t>i = 0</t>
+  </si>
+  <si>
+    <t>i = 1</t>
+  </si>
+  <si>
+    <t>i = 2</t>
+  </si>
+  <si>
+    <t>i = 3</t>
+  </si>
+  <si>
+    <t>i = 4</t>
+  </si>
+  <si>
+    <t>i = 5</t>
+  </si>
+  <si>
+    <t>i = 6</t>
+  </si>
+  <si>
+    <t>i = 7</t>
+  </si>
+  <si>
+    <t>i = 8</t>
+  </si>
+  <si>
+    <t>i = 9</t>
+  </si>
+  <si>
+    <t>Lista[i]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +102,12 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,15 +158,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,6 +198,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,134 +521,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B46A0FD-0F4C-4816-BDAD-3DF6CE9CEA9A}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="str">
-        <f>IF(B2=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="str">
+        <f>IF(C2=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>IF(C3=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>IF(C4=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>IF(C5=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>IF(C6=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="e">
+        <f>IF(MATCH(F2,  C2:C11, 0), "encontrado na lista", "não encontrado na lista")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>IF(C7=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>IF(C8=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>IF(B3=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>IF(B4=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>IF(B5=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>IF(B6=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(MATCH(E2,  B2:B11, 0), "encontrado na lista", "não encontrado na lista")</f>
-        <v>encontrado na lista</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>IF(B7=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>IF(B8=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>IF(B9=E2,"achou", "não achou")</f>
-        <v>achou</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="D9" s="6" t="str">
+        <f>IF(C9=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <f>IF(B10=E2,"achou", "não achou")</f>
-        <v>não achou</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="D10" s="6" t="str">
+        <f>IF(C10=F2,"achou", "não achou")</f>
+        <v>não achou</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="str">
-        <f>IF(B11=E2,"achou", "não achou")</f>
+      <c r="D11" s="6" t="str">
+        <f>IF(C11=F2,"achou", "não achou")</f>
         <v>não achou</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="achou">
+      <formula>LEFT(D1,LEN("achou"))="achou"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="não">
+      <formula>LEFT(D1,LEN("não"))="não"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>